--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04225933333333334</v>
+        <v>0.020639</v>
       </c>
       <c r="N2">
-        <v>0.126778</v>
+        <v>0.061917</v>
       </c>
       <c r="O2">
-        <v>0.02137494054695286</v>
+        <v>0.01051179756882531</v>
       </c>
       <c r="P2">
-        <v>0.02137494054695286</v>
+        <v>0.01051179756882531</v>
       </c>
       <c r="Q2">
-        <v>6.862886025022</v>
+        <v>4.157514848897334</v>
       </c>
       <c r="R2">
-        <v>61.765974225198</v>
+        <v>37.41763364007601</v>
       </c>
       <c r="S2">
-        <v>0.008358396223270446</v>
+        <v>0.005080877599907409</v>
       </c>
       <c r="T2">
-        <v>0.008358396223270446</v>
+        <v>0.005080877599907409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.934791</v>
+        <v>0.04225933333333334</v>
       </c>
       <c r="N3">
-        <v>5.804373</v>
+        <v>0.126778</v>
       </c>
       <c r="O3">
-        <v>0.9786250594530471</v>
+        <v>0.02152340507745102</v>
       </c>
       <c r="P3">
-        <v>0.9786250594530471</v>
+        <v>0.02152340507745102</v>
       </c>
       <c r="Q3">
-        <v>314.208698241927</v>
+        <v>8.512709231931558</v>
       </c>
       <c r="R3">
-        <v>2827.878284177343</v>
+        <v>76.61438308738401</v>
       </c>
       <c r="S3">
-        <v>0.3826787720397305</v>
+        <v>0.01040333834586724</v>
       </c>
       <c r="T3">
-        <v>0.3826787720397305</v>
+        <v>0.01040333834586724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04225933333333334</v>
+        <v>1.838047333333333</v>
       </c>
       <c r="N4">
-        <v>0.126778</v>
+        <v>5.514142</v>
       </c>
       <c r="O4">
-        <v>0.02137494054695286</v>
+        <v>0.9361491104181001</v>
       </c>
       <c r="P4">
-        <v>0.02137494054695286</v>
+        <v>0.9361491104181002</v>
       </c>
       <c r="Q4">
-        <v>2.764494219236889</v>
+        <v>370.2557818358196</v>
       </c>
       <c r="R4">
-        <v>24.880447973132</v>
+        <v>3332.302036522376</v>
       </c>
       <c r="S4">
-        <v>0.003366912689075078</v>
+        <v>0.4524876943409506</v>
       </c>
       <c r="T4">
-        <v>0.003366912689075078</v>
+        <v>0.4524876943409507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.41736466666667</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>196.252094</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.934791</v>
+        <v>0.06246733333333334</v>
       </c>
       <c r="N5">
-        <v>5.804373</v>
+        <v>0.187402</v>
       </c>
       <c r="O5">
-        <v>0.9786250594530471</v>
+        <v>0.0318156869356235</v>
       </c>
       <c r="P5">
-        <v>0.9786250594530471</v>
+        <v>0.0318156869356235</v>
       </c>
       <c r="Q5">
-        <v>126.5689284007847</v>
+        <v>12.58340355173956</v>
       </c>
       <c r="R5">
-        <v>1139.120355607062</v>
+        <v>113.250631965656</v>
       </c>
       <c r="S5">
-        <v>0.1541499085474198</v>
+        <v>0.01537811302191399</v>
       </c>
       <c r="T5">
-        <v>0.1541499085474198</v>
+        <v>0.01537811302191399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,33 +803,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04225933333333334</v>
+        <v>0.020639</v>
       </c>
       <c r="N6">
-        <v>0.126778</v>
+        <v>0.061917</v>
       </c>
       <c r="O6">
-        <v>0.02137494054695286</v>
+        <v>0.01051179756882531</v>
       </c>
       <c r="P6">
-        <v>0.02137494054695286</v>
+        <v>0.01051179756882531</v>
       </c>
       <c r="Q6">
-        <v>2.585442367695333</v>
+        <v>1.350148989355334</v>
       </c>
       <c r="R6">
-        <v>23.268981309258</v>
+        <v>12.151340904198</v>
       </c>
       <c r="S6">
-        <v>0.003148843160565063</v>
+        <v>0.001650010163733402</v>
       </c>
       <c r="T6">
-        <v>0.003148843160565064</v>
+        <v>0.001650010163733402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.934791</v>
+        <v>0.04225933333333334</v>
       </c>
       <c r="N7">
-        <v>5.804373</v>
+        <v>0.126778</v>
       </c>
       <c r="O7">
-        <v>0.9786250594530471</v>
+        <v>0.02152340507745102</v>
       </c>
       <c r="P7">
-        <v>0.9786250594530471</v>
+        <v>0.02152340507745102</v>
       </c>
       <c r="Q7">
-        <v>118.371262144117</v>
+        <v>2.764494219236889</v>
       </c>
       <c r="R7">
-        <v>1065.341359297053</v>
+        <v>24.880447973132</v>
       </c>
       <c r="S7">
-        <v>0.1441658664943327</v>
+        <v>0.003378474224167729</v>
       </c>
       <c r="T7">
-        <v>0.1441658664943327</v>
+        <v>0.00337847422416773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.04225933333333334</v>
+        <v>1.838047333333333</v>
       </c>
       <c r="N8">
-        <v>0.126778</v>
+        <v>5.514142</v>
       </c>
       <c r="O8">
-        <v>0.02137494054695286</v>
+        <v>0.9361491104181001</v>
       </c>
       <c r="P8">
-        <v>0.02137494054695286</v>
+        <v>0.9361491104181002</v>
       </c>
       <c r="Q8">
-        <v>5.337647220637778</v>
+        <v>120.2402126792609</v>
       </c>
       <c r="R8">
-        <v>48.03882498574001</v>
+        <v>1082.161914113348</v>
       </c>
       <c r="S8">
-        <v>0.006500788474042272</v>
+        <v>0.146944947983094</v>
       </c>
       <c r="T8">
-        <v>0.006500788474042274</v>
+        <v>0.146944947983094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>65.41736466666667</v>
+      </c>
+      <c r="H9">
+        <v>196.252094</v>
+      </c>
+      <c r="I9">
+        <v>0.1569674599353791</v>
+      </c>
+      <c r="J9">
+        <v>0.1569674599353792</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06246733333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.187402</v>
+      </c>
+      <c r="O9">
+        <v>0.0318156869356235</v>
+      </c>
+      <c r="P9">
+        <v>0.0318156869356235</v>
+      </c>
+      <c r="Q9">
+        <v>4.08644832442089</v>
+      </c>
+      <c r="R9">
+        <v>36.77803491978801</v>
+      </c>
+      <c r="S9">
+        <v>0.004994027564384047</v>
+      </c>
+      <c r="T9">
+        <v>0.004994027564384048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>126.3069433333333</v>
-      </c>
-      <c r="H9">
-        <v>378.92083</v>
-      </c>
-      <c r="I9">
-        <v>0.3041313008456065</v>
-      </c>
-      <c r="J9">
-        <v>0.3041313008456065</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.934791</v>
-      </c>
-      <c r="N9">
-        <v>5.804373</v>
-      </c>
-      <c r="O9">
-        <v>0.9786250594530471</v>
-      </c>
-      <c r="P9">
-        <v>0.9786250594530471</v>
-      </c>
-      <c r="Q9">
-        <v>244.3775371988433</v>
-      </c>
-      <c r="R9">
-        <v>2199.39783478959</v>
-      </c>
-      <c r="S9">
-        <v>0.2976305123715642</v>
-      </c>
-      <c r="T9">
-        <v>0.2976305123715642</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H10">
+        <v>181.304524</v>
+      </c>
+      <c r="I10">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J10">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.020639</v>
+      </c>
+      <c r="N10">
+        <v>0.061917</v>
+      </c>
+      <c r="O10">
+        <v>0.01051179756882531</v>
+      </c>
+      <c r="P10">
+        <v>0.01051179756882531</v>
+      </c>
+      <c r="Q10">
+        <v>1.247314690278667</v>
+      </c>
+      <c r="R10">
+        <v>11.225832212508</v>
+      </c>
+      <c r="S10">
+        <v>0.001524336893601994</v>
+      </c>
+      <c r="T10">
+        <v>0.001524336893601994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H11">
+        <v>181.304524</v>
+      </c>
+      <c r="I11">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J11">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04225933333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.126778</v>
+      </c>
+      <c r="O11">
+        <v>0.02152340507745102</v>
+      </c>
+      <c r="P11">
+        <v>0.02152340507745102</v>
+      </c>
+      <c r="Q11">
+        <v>2.553936104852445</v>
+      </c>
+      <c r="R11">
+        <v>22.985424943672</v>
+      </c>
+      <c r="S11">
+        <v>0.003121152231165489</v>
+      </c>
+      <c r="T11">
+        <v>0.00312115223116549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H12">
+        <v>181.304524</v>
+      </c>
+      <c r="I12">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J12">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.838047333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.514142</v>
+      </c>
+      <c r="O12">
+        <v>0.9361491104181001</v>
+      </c>
+      <c r="P12">
+        <v>0.9361491104181002</v>
+      </c>
+      <c r="Q12">
+        <v>111.0820989531564</v>
+      </c>
+      <c r="R12">
+        <v>999.738890578408</v>
+      </c>
+      <c r="S12">
+        <v>0.1357528641109919</v>
+      </c>
+      <c r="T12">
+        <v>0.1357528641109919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.43484133333334</v>
+      </c>
+      <c r="H13">
+        <v>181.304524</v>
+      </c>
+      <c r="I13">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="J13">
+        <v>0.1450120099461104</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06246733333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.187402</v>
+      </c>
+      <c r="O13">
+        <v>0.0318156869356235</v>
+      </c>
+      <c r="P13">
+        <v>0.0318156869356235</v>
+      </c>
+      <c r="Q13">
+        <v>3.775203378516445</v>
+      </c>
+      <c r="R13">
+        <v>33.97683040664801</v>
+      </c>
+      <c r="S13">
+        <v>0.004613656710350968</v>
+      </c>
+      <c r="T13">
+        <v>0.004613656710350969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H14">
+        <v>268.396625</v>
+      </c>
+      <c r="I14">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J14">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.020639</v>
+      </c>
+      <c r="N14">
+        <v>0.061917</v>
+      </c>
+      <c r="O14">
+        <v>0.01051179756882531</v>
+      </c>
+      <c r="P14">
+        <v>0.01051179756882531</v>
+      </c>
+      <c r="Q14">
+        <v>1.846479314458334</v>
+      </c>
+      <c r="R14">
+        <v>16.618313830125</v>
+      </c>
+      <c r="S14">
+        <v>0.002256572911582501</v>
+      </c>
+      <c r="T14">
+        <v>0.002256572911582501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H15">
+        <v>268.396625</v>
+      </c>
+      <c r="I15">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J15">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04225933333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.126778</v>
+      </c>
+      <c r="O15">
+        <v>0.02152340507745102</v>
+      </c>
+      <c r="P15">
+        <v>0.02152340507745102</v>
+      </c>
+      <c r="Q15">
+        <v>3.78075414713889</v>
+      </c>
+      <c r="R15">
+        <v>34.02678732425</v>
+      </c>
+      <c r="S15">
+        <v>0.004620440276250566</v>
+      </c>
+      <c r="T15">
+        <v>0.004620440276250567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H16">
+        <v>268.396625</v>
+      </c>
+      <c r="I16">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J16">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.838047333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.514142</v>
+      </c>
+      <c r="O16">
+        <v>0.9361491104181001</v>
+      </c>
+      <c r="P16">
+        <v>0.9361491104181002</v>
+      </c>
+      <c r="Q16">
+        <v>164.4419002856389</v>
+      </c>
+      <c r="R16">
+        <v>1479.97710257075</v>
+      </c>
+      <c r="S16">
+        <v>0.2009636039830636</v>
+      </c>
+      <c r="T16">
+        <v>0.2009636039830637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>89.46554166666668</v>
+      </c>
+      <c r="H17">
+        <v>268.396625</v>
+      </c>
+      <c r="I17">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="J17">
+        <v>0.2146705068098712</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.06246733333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.187402</v>
+      </c>
+      <c r="O17">
+        <v>0.0318156869356235</v>
+      </c>
+      <c r="P17">
+        <v>0.0318156869356235</v>
+      </c>
+      <c r="Q17">
+        <v>5.58867381313889</v>
+      </c>
+      <c r="R17">
+        <v>50.29806431825001</v>
+      </c>
+      <c r="S17">
+        <v>0.006829889638974494</v>
+      </c>
+      <c r="T17">
+        <v>0.006829889638974495</v>
       </c>
     </row>
   </sheetData>
